--- a/16_11/zad.xlsx
+++ b/16_11/zad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr5\MN\16_12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr5\MN\16_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E81C6-2AAB-4485-8F4F-E90112B685E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C9B86-A62B-4D92-BE74-A7D49AADD102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="-300" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$G$4</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$G$5</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">Sheet1!$G$6</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Sheet1!$G$5</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Sheet1!$G$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source</t>
   </si>
@@ -128,17 +128,48 @@
     <t>available</t>
   </si>
   <si>
-    <t>100*F2</t>
+    <t>"=B2+C2+D2"</t>
+  </si>
+  <si>
+    <t>Formuły w kolumnie F</t>
+  </si>
+  <si>
+    <t>"=B4*B$2+C4*C$2+D4*D$2"</t>
+  </si>
+  <si>
+    <t>"=B5*B$2+C5*C$2+D5*D$2"</t>
+  </si>
+  <si>
+    <t>"=B6*B$2+C6*C$2+D6*D$2"</t>
+  </si>
+  <si>
+    <t>"=B7*B$2+C7*C$2+D7*D$2"</t>
+  </si>
+  <si>
+    <t>"=B9*B$2+C9*C$2+D9*D$2"</t>
+  </si>
+  <si>
+    <t>Formuły w kolumnie G</t>
+  </si>
+  <si>
+    <t>"=100*$F$2"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,8 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -446,18 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,26 +511,40 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>357142.85714288545</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>142857.14285711455</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F2">
         <f>B2+C2+D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,13 +559,17 @@
       </c>
       <c r="F4">
         <f>B4*B$2+C4*C$2+D4*D$2</f>
-        <v>0</v>
+        <v>357142.85714288545</v>
       </c>
       <c r="G4">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -530,14 +583,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">B5*B$2+C5*C$2+D5*D$2</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F7" si="0">B5*B$2+C5*C$2+D5*D$2</f>
+        <v>142857.14285711455</v>
       </c>
       <c r="G5">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -552,13 +609,17 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="G6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -573,13 +634,24 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100000000.000001</v>
+      </c>
+      <c r="G7">
+        <f>100*$F$2</f>
+        <v>100000000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -593,9 +665,13 @@
         <v>1.2</v>
       </c>
       <c r="F9">
-        <f>B9*B$2+C9*C$2+98*D$2</f>
-        <v>0</v>
-      </c>
+        <f>B9*B$2+C9*C$2+D9*D$2</f>
+        <v>921428.57142855728</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/16_11/zad.xlsx
+++ b/16_11/zad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr5\MN\16_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C9B86-A62B-4D92-BE74-A7D49AADD102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADBD4E4-5618-4D05-A457-7DC672653A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/16_11/zad.xlsx
+++ b/16_11/zad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uczelnia\Semestr5\MN\16_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADBD4E4-5618-4D05-A457-7DC672653A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943E0E4-DDF2-4095-8937-53130FE6E6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
